--- a/WebScience/Data/gamenodes2.xlsx
+++ b/WebScience/Data/gamenodes2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -20,6 +20,207 @@
     <t>label</t>
   </si>
   <si>
+    <t>Manifold Garden</t>
+  </si>
+  <si>
+    <t>Kine</t>
+  </si>
+  <si>
+    <t>Untitled Goose Game</t>
+  </si>
+  <si>
+    <t>The Sojourn</t>
+  </si>
+  <si>
+    <t>Tetris® Effect</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Donut County</t>
+  </si>
+  <si>
+    <t>7 Billion Humans</t>
+  </si>
+  <si>
+    <t>GNOG</t>
+  </si>
+  <si>
+    <t>Minit</t>
+  </si>
+  <si>
+    <t>Q.U.B.E.2</t>
+  </si>
+  <si>
+    <t>Conarium</t>
+  </si>
+  <si>
+    <t>RiME</t>
+  </si>
+  <si>
+    <t>What Remains of Edith Finch</t>
+  </si>
+  <si>
+    <t>Thimbleweed Park</t>
+  </si>
+  <si>
+    <t>The Crew 2</t>
+  </si>
+  <si>
+    <t>Overpass</t>
+  </si>
+  <si>
+    <t>Trials Rising</t>
+  </si>
+  <si>
+    <t>WRC 8 FIA World Rally Championship</t>
+  </si>
+  <si>
+    <t>Dangerous Driving</t>
+  </si>
+  <si>
+    <t>Kingdom Come: Deliverance</t>
+  </si>
+  <si>
+    <t>Faeria</t>
+  </si>
+  <si>
+    <t>Phoenix Point</t>
+  </si>
+  <si>
+    <t>Battle Breakers</t>
+  </si>
+  <si>
+    <t>Yaga</t>
+  </si>
+  <si>
+    <t>Rune II</t>
+  </si>
+  <si>
+    <t>ReadySet Heroes</t>
+  </si>
+  <si>
+    <t>The Outer Worlds</t>
+  </si>
+  <si>
+    <t>Cardpocalypse</t>
+  </si>
+  <si>
+    <t>Rebel Galaxy Outlaw</t>
+  </si>
+  <si>
+    <t>Assassin's Creed III Remastered</t>
+  </si>
+  <si>
+    <t>Outward</t>
+  </si>
+  <si>
+    <t>Operencia: The Stolen Sun</t>
+  </si>
+  <si>
+    <t>My Time at Portia</t>
+  </si>
+  <si>
+    <t>Ashen</t>
+  </si>
+  <si>
+    <t>Assassin's Creed Odyssey</t>
+  </si>
+  <si>
+    <t>Vampyr</t>
+  </si>
+  <si>
+    <t>Moonlighter</t>
+  </si>
+  <si>
+    <t>South Park: The Fractured But Whole</t>
+  </si>
+  <si>
+    <t>Last Day of June</t>
+  </si>
+  <si>
+    <t>Darksiders Warmastered Edition</t>
+  </si>
+  <si>
+    <t>Far Cry New Dawn</t>
+  </si>
+  <si>
+    <t>Far Cry 5</t>
+  </si>
+  <si>
+    <t>RUINER</t>
+  </si>
+  <si>
+    <t>Mechwarrior 5</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Ghost Recon Breakpoint</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>The Division 2</t>
+  </si>
+  <si>
+    <t>Paladins</t>
+  </si>
+  <si>
+    <t>Zombie Army 4: Dead War</t>
+  </si>
+  <si>
+    <t>Metro Exodus</t>
+  </si>
+  <si>
+    <t>The Cycle</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Ghost Recon Wildlands</t>
+  </si>
+  <si>
+    <t>World War Z</t>
+  </si>
+  <si>
+    <t>The Settlers</t>
+  </si>
+  <si>
+    <t>Offworld Trading Company</t>
+  </si>
+  <si>
+    <t>Industries of Titan</t>
+  </si>
+  <si>
+    <t>Magic The Gathering Arena</t>
+  </si>
+  <si>
+    <t>Carcassonne</t>
+  </si>
+  <si>
+    <t>John Wick Hex</t>
+  </si>
+  <si>
+    <t>Anno 1800</t>
+  </si>
+  <si>
+    <t>Totally Accurate Battle Simulator</t>
+  </si>
+  <si>
+    <t>Mutant Year Zero: Road To Eden</t>
+  </si>
+  <si>
+    <t>Bad North</t>
+  </si>
+  <si>
+    <t>This War of Mine</t>
+  </si>
+  <si>
+    <t>Surviving Mars</t>
+  </si>
+  <si>
+    <t>Into The Breach</t>
+  </si>
+  <si>
     <t>DOOM Eternal</t>
   </si>
   <si>
@@ -29,30 +230,30 @@
     <t>Destiny 2</t>
   </si>
   <si>
-    <t>Borderlands 3</t>
-  </si>
-  <si>
     <t>PLAYERUNKNOWN'S BATTLEGROUNDS</t>
   </si>
   <si>
     <t>Halo: The Master Chief Collection</t>
   </si>
   <si>
+    <t>theHunter: Call of the Wild™</t>
+  </si>
+  <si>
     <t>Red Dead Redemption 2</t>
   </si>
   <si>
     <t>Rust</t>
   </si>
   <si>
+    <t>KovaaK 2.0: The Meta</t>
+  </si>
+  <si>
     <t>DayZ</t>
   </si>
   <si>
     <t>Black Mesa</t>
   </si>
   <si>
-    <t>Metro Exodus</t>
-  </si>
-  <si>
     <t>Crossout</t>
   </si>
   <si>
@@ -62,12 +263,21 @@
     <t>Insurgency: Sandstorm</t>
   </si>
   <si>
+    <t>War Robots</t>
+  </si>
+  <si>
     <t>Far Cry® 5</t>
   </si>
   <si>
     <t>Paladins®</t>
   </si>
   <si>
+    <t>Sniper Elite 4</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Ghost Recon® Wildlands</t>
+  </si>
+  <si>
     <t>Post Scriptum</t>
   </si>
   <si>
@@ -89,21 +299,33 @@
     <t>Grand Theft Auto IV: The Complete Edition</t>
   </si>
   <si>
+    <t>SUPERHOT VR</t>
+  </si>
+  <si>
     <t>Remnant: From the Ashes</t>
   </si>
   <si>
     <t>RAGE 2</t>
   </si>
   <si>
+    <t>Rising Storm 2: Vietnam</t>
+  </si>
+  <si>
     <t>Bright Memory</t>
   </si>
   <si>
+    <t>Sniper Ghost Warrior 3</t>
+  </si>
+  <si>
     <t>Ring of Elysium</t>
   </si>
   <si>
     <t>Freeman: Guerrilla Warfare</t>
   </si>
   <si>
+    <t>Ballistic Overkill</t>
+  </si>
+  <si>
     <t>Wolfenstein II: The New Colossus</t>
   </si>
   <si>
@@ -113,6 +335,12 @@
     <t>Gears 5</t>
   </si>
   <si>
+    <t>BRAIN / OUT</t>
+  </si>
+  <si>
+    <t>Call to Arms</t>
+  </si>
+  <si>
     <t>Creative Destruction</t>
   </si>
   <si>
@@ -131,9 +359,33 @@
     <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
   </si>
   <si>
+    <t>Totally Accurate Battlegrounds</t>
+  </si>
+  <si>
+    <t>SAS: Zombie Assault 4</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
     <t>Sword Art Online: Fatal Bullet</t>
   </si>
   <si>
+    <t>Ion Fury</t>
+  </si>
+  <si>
+    <t>Line of Sight</t>
+  </si>
+  <si>
+    <t>Day of Infamy</t>
+  </si>
+  <si>
+    <t>Wolfenstein: Youngblood</t>
+  </si>
+  <si>
+    <t>Deceit</t>
+  </si>
+  <si>
     <t>Robocraft</t>
   </si>
   <si>
@@ -149,24 +401,63 @@
     <t>Z1 Battle Royale</t>
   </si>
   <si>
+    <t>Borderlands Game of the Year Enhanced</t>
+  </si>
+  <si>
     <t>Darwin Project</t>
   </si>
   <si>
+    <t>Tannenberg</t>
+  </si>
+  <si>
     <t>Hurtworld</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Alien Swarm: Reactive Drop</t>
+  </si>
+  <si>
     <t>Next Day: Survival</t>
   </si>
   <si>
+    <t>Sword With Sauce</t>
+  </si>
+  <si>
     <t>SCP: Secret Laboratory</t>
   </si>
   <si>
+    <t>Dragonia</t>
+  </si>
+  <si>
+    <t>Halo: Reach</t>
+  </si>
+  <si>
+    <t>Warhammer 40,000: Eternal Crusade</t>
+  </si>
+  <si>
+    <t>Pandemic Express - Zombie Escape</t>
+  </si>
+  <si>
+    <t>Dreadnought</t>
+  </si>
+  <si>
+    <t>GUNS UP!</t>
+  </si>
+  <si>
     <t>AirMech Strike</t>
   </si>
   <si>
+    <t>Rules Of Survival</t>
+  </si>
+  <si>
     <t>Divinity: Original Sin 2 - Definitive Edition</t>
   </si>
   <si>
+    <t>Black Desert Online</t>
+  </si>
+  <si>
     <t>Wolcen: Lords of Mayhem</t>
   </si>
   <si>
@@ -185,7 +476,7 @@
     <t>Pathfinder: Kingmaker - Enhanced Edition</t>
   </si>
   <si>
-    <t>Outward</t>
+    <t>Pillars of Eternity II: Deadfire</t>
   </si>
   <si>
     <t>DARK SOULS™: REMASTERED</t>
@@ -197,7 +488,7 @@
     <t>State of Decay 2: Juggernaut Edition</t>
   </si>
   <si>
-    <t>Kingdom Come: Deliverance</t>
+    <t>NieR:Automata™</t>
   </si>
   <si>
     <t>GreedFall</t>
@@ -206,6 +497,9 @@
     <t>Conan Exiles</t>
   </si>
   <si>
+    <t>SD GUNDAM G GENERATION CROSS RAYS</t>
+  </si>
+  <si>
     <t>Monster Hunter World: Iceborne</t>
   </si>
   <si>
@@ -224,16 +518,25 @@
     <t>Kenshi</t>
   </si>
   <si>
+    <t>OCTOPATH TRAVELER™</t>
+  </si>
+  <si>
+    <t>Portal Knights</t>
+  </si>
+  <si>
     <t>CODE VEIN</t>
   </si>
   <si>
+    <t>TERA</t>
+  </si>
+  <si>
     <t>My Time At Portia</t>
   </si>
   <si>
     <t>古剑奇谭三(Gujian3)</t>
   </si>
   <si>
-    <t>Vampyr</t>
+    <t>DRAGON QUEST® XI: Echoes of an Elusive Age™ - Digital Edition of Light</t>
   </si>
   <si>
     <t>Graveyard Keeper</t>
@@ -257,15 +560,36 @@
     <t>Albion Online</t>
   </si>
   <si>
+    <t>Battle Brothers</t>
+  </si>
+  <si>
     <t>Mutant Year Zero: Road to Eden</t>
   </si>
   <si>
+    <t>ATOM RPG: Post-apocalyptic indie game</t>
+  </si>
+  <si>
     <t>Yakuza 0</t>
   </si>
   <si>
+    <t>Kritika:REBOOT</t>
+  </si>
+  <si>
+    <t>Pit People®</t>
+  </si>
+  <si>
     <t>SoulWorker - Anime Action MMO</t>
   </si>
   <si>
+    <t>Dungeon Defenders II</t>
+  </si>
+  <si>
+    <t>Azur Lane Crosswave</t>
+  </si>
+  <si>
+    <t>Hand of Fate 2</t>
+  </si>
+  <si>
     <t>Bloodstained: Ritual of the Night</t>
   </si>
   <si>
@@ -275,57 +599,183 @@
     <t>Minion Masters</t>
   </si>
   <si>
+    <t>Darksiders Genesis</t>
+  </si>
+  <si>
+    <t>Battle Chasers: Nightwar</t>
+  </si>
+  <si>
     <t>Chinese Parents</t>
   </si>
   <si>
     <t>Gothic Playable Teaser</t>
   </si>
   <si>
+    <t>Children of Morta</t>
+  </si>
+  <si>
+    <t>Darksiders III</t>
+  </si>
+  <si>
     <t>Dungeons 3</t>
   </si>
   <si>
     <t>Cube World</t>
   </si>
   <si>
+    <t>Ni no Kuni™ II: Revenant Kingdom</t>
+  </si>
+  <si>
     <t>Unheard</t>
   </si>
   <si>
+    <t>Idle Champions of the Forgotten Realms</t>
+  </si>
+  <si>
     <t>Streets of Rogue</t>
   </si>
   <si>
+    <t>天命奇御 Fate Seeker</t>
+  </si>
+  <si>
     <t>Secret World Legends</t>
   </si>
   <si>
+    <t>West of Loathing</t>
+  </si>
+  <si>
     <t>MapleStory 2</t>
   </si>
   <si>
     <t>BATTLETECH</t>
   </si>
   <si>
+    <t>Pyre</t>
+  </si>
+  <si>
+    <t>Tales of Berseria™</t>
+  </si>
+  <si>
+    <t>Enderal: Forgotten Stories</t>
+  </si>
+  <si>
+    <t>The Surge</t>
+  </si>
+  <si>
     <t>Slay the Spire</t>
   </si>
   <si>
+    <t>Citadel: Forged with Fire</t>
+  </si>
+  <si>
     <t>Book of Demons</t>
   </si>
   <si>
+    <t>Sword Art Online: Hollow Realization Deluxe Edition</t>
+  </si>
+  <si>
+    <t>NARUTO TO BORUTO: SHINOBI STRIKER</t>
+  </si>
+  <si>
     <t>CrossCode</t>
   </si>
   <si>
     <t>Absolver</t>
   </si>
   <si>
+    <t>Soda Dungeon</t>
+  </si>
+  <si>
+    <t>Warhammer 40,000: Mechanicus</t>
+  </si>
+  <si>
+    <t>Fallout Shelter</t>
+  </si>
+  <si>
+    <t>Closers</t>
+  </si>
+  <si>
+    <t>MOBIUS FINAL FANTASY™</t>
+  </si>
+  <si>
+    <t>ROMANCE OF THE THREE KINGDOMS XIV</t>
+  </si>
+  <si>
+    <t>Cyberdimension Neptunia: 4 Goddesses Online</t>
+  </si>
+  <si>
+    <t>Wasteland Survival</t>
+  </si>
+  <si>
+    <t>PixARK</t>
+  </si>
+  <si>
+    <t>Tactical Monsters Rumble Arena</t>
+  </si>
+  <si>
+    <t>Otaku's Adventure</t>
+  </si>
+  <si>
     <t>Into the Breach</t>
   </si>
   <si>
+    <t>Darkwood</t>
+  </si>
+  <si>
+    <t>Realm Grinder</t>
+  </si>
+  <si>
+    <t>The Vagrant</t>
+  </si>
+  <si>
     <t>Finding Paradise</t>
   </si>
   <si>
+    <t>Dungreed</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Creativerse</t>
+  </si>
+  <si>
+    <t>Confess My Love</t>
+  </si>
+  <si>
+    <t>JUMP FORCE</t>
+  </si>
+  <si>
+    <t>Tree of Life</t>
+  </si>
+  <si>
+    <t>King Exit</t>
+  </si>
+  <si>
+    <t>Dark Elf</t>
+  </si>
+  <si>
+    <t>The Legend of Bum-Bo</t>
+  </si>
+  <si>
+    <t>The Wild Eight</t>
+  </si>
+  <si>
+    <t>Crawl</t>
+  </si>
+  <si>
     <t>Dead Frontier 2</t>
   </si>
   <si>
+    <t>Ragnarok - ARK Expansion Map</t>
+  </si>
+  <si>
+    <t>灵魂筹码 Soul at Stake</t>
+  </si>
+  <si>
     <t>Ori and the Will of the Wisps</t>
   </si>
   <si>
@@ -338,24 +788,93 @@
     <t>GRIS</t>
   </si>
   <si>
+    <t>The Room Three</t>
+  </si>
+  <si>
     <t>Besiege</t>
   </si>
   <si>
     <t>RESIDENT EVIL 2 / BIOHAZARD RE:2</t>
   </si>
   <si>
+    <t>Gorogoa</t>
+  </si>
+  <si>
     <t>ISLANDERS</t>
   </si>
   <si>
+    <t>Supraland</t>
+  </si>
+  <si>
     <t>PC Building Simulator</t>
   </si>
   <si>
     <t>Return of the Obra Dinn</t>
   </si>
   <si>
+    <t>Bendy and the Ink Machine™</t>
+  </si>
+  <si>
+    <t>Secret Neighbor</t>
+  </si>
+  <si>
     <t>HITMAN™ 2</t>
   </si>
   <si>
+    <t>We Were Here</t>
+  </si>
+  <si>
+    <t>Phoenix Wright: Ace Attorney Trilogy / 逆転裁判123 成歩堂セレクション</t>
+  </si>
+  <si>
+    <t>RESIDENT EVIL 7 biohazard / BIOHAZARD 7 resident evil</t>
+  </si>
+  <si>
+    <t>Danganronpa V3: Killing Harmony</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Zup! X</t>
+  </si>
+  <si>
+    <t>Zup! 3</t>
+  </si>
+  <si>
+    <t>FAR: Lone Sails</t>
+  </si>
+  <si>
+    <t>Friday the 13th: Killer Puzzle</t>
+  </si>
+  <si>
+    <t>Hidden Folks</t>
+  </si>
+  <si>
+    <t>Hentai Girl</t>
+  </si>
+  <si>
+    <t>Detention</t>
+  </si>
+  <si>
+    <t>WILL: A Wonderful World / WILL：美好世界</t>
+  </si>
+  <si>
+    <t>Among the Sleep - Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Another Adventure</t>
+  </si>
+  <si>
+    <t>OLDTV</t>
+  </si>
+  <si>
+    <t>Fantasy Girl</t>
+  </si>
+  <si>
+    <t>When the Darkness comes</t>
+  </si>
+  <si>
     <t>Age of Empires II: Definitive Edition</t>
   </si>
   <si>
@@ -371,6 +890,12 @@
     <t>Northgard</t>
   </si>
   <si>
+    <t>Age of Empires: Definitive Edition</t>
+  </si>
+  <si>
+    <t>Transport Fever 2</t>
+  </si>
+  <si>
     <t>RimWorld</t>
   </si>
   <si>
@@ -389,6 +914,9 @@
     <t>World of Warships</t>
   </si>
   <si>
+    <t>Endless Space® 2 - Digital Deluxe Edition</t>
+  </si>
+  <si>
     <t>Football Manager 2020</t>
   </si>
   <si>
@@ -404,6 +932,9 @@
     <t>Jurassic World Evolution</t>
   </si>
   <si>
+    <t>Battlefleet Gothic: Armada 2</t>
+  </si>
+  <si>
     <t>They Are Billions</t>
   </si>
   <si>
@@ -416,16 +947,46 @@
     <t>Total War Saga: THRONES OF BRITANNIA</t>
   </si>
   <si>
+    <t>Warhammer 40,000: Dawn of War III</t>
+  </si>
+  <si>
+    <t>Thief Simulator</t>
+  </si>
+  <si>
     <t>Kingdoms and Castles</t>
   </si>
   <si>
+    <t>Railway Empire</t>
+  </si>
+  <si>
+    <t>911 Operator</t>
+  </si>
+  <si>
     <t>Holdfast: Nations At War</t>
   </si>
   <si>
     <t>Oxygen Not Included</t>
   </si>
   <si>
-    <t>Surviving Mars</t>
+    <t>KARDS - The WWII Card Game</t>
+  </si>
+  <si>
+    <t>Forts</t>
+  </si>
+  <si>
+    <t>Kingdom Two Crowns</t>
+  </si>
+  <si>
+    <t>Sudden Strike 4</t>
+  </si>
+  <si>
+    <t>Halo Wars: Definitive Edition</t>
+  </si>
+  <si>
+    <t>FOR HONOR™</t>
+  </si>
+  <si>
+    <t>Mindustry</t>
   </si>
   <si>
     <t>Blackwake</t>
@@ -440,37 +1001,124 @@
     <t>Stonehearth</t>
   </si>
   <si>
+    <t>Ultimate General: Civil War</t>
+  </si>
+  <si>
+    <t>Bomber Crew</t>
+  </si>
+  <si>
+    <t>Steel Division: Normandy 44</t>
+  </si>
+  <si>
+    <t>Ultimate Epic Battle Simulator</t>
+  </si>
+  <si>
+    <t>Eternal Card Game</t>
+  </si>
+  <si>
+    <t>Naval Action</t>
+  </si>
+  <si>
+    <t>Pacify</t>
+  </si>
+  <si>
+    <t>Bus Simulator 18</t>
+  </si>
+  <si>
+    <t>Castle Story</t>
+  </si>
+  <si>
     <t>Business Tour - Board Game with Online Multiplayer (大富翁)</t>
   </si>
   <si>
+    <t>Richman10</t>
+  </si>
+  <si>
+    <t>Blitzkrieg 3</t>
+  </si>
+  <si>
+    <t>Life is Feudal: Forest Village</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls®: Legends™</t>
+  </si>
+  <si>
+    <t>Rise to Ruins</t>
+  </si>
+  <si>
+    <t>Domina</t>
+  </si>
+  <si>
     <t>Artifact</t>
   </si>
   <si>
     <t>Battlerite</t>
   </si>
   <si>
+    <t>Heat Signature</t>
+  </si>
+  <si>
+    <t>Total War: WARHAMMER II - Mortal Empires</t>
+  </si>
+  <si>
+    <t>Internet Cafe Simulator</t>
+  </si>
+  <si>
     <t>Ultimate Custom Night</t>
   </si>
   <si>
     <t>Freddy Fazbear's Pizzeria Simulator</t>
   </si>
   <si>
+    <t>F1 2018</t>
+  </si>
+  <si>
+    <t>SCRAM</t>
+  </si>
+  <si>
+    <t>DiRT Rally 2.0</t>
+  </si>
+  <si>
+    <t>Assetto Corsa Competizione</t>
+  </si>
+  <si>
     <t>Wreckfest</t>
   </si>
   <si>
     <t>The Crew™ 2</t>
   </si>
   <si>
+    <t>Project CARS 2</t>
+  </si>
+  <si>
     <t>F1® 2019</t>
   </si>
   <si>
+    <t>CarX Drift Racing Online</t>
+  </si>
+  <si>
     <t>Car Mechanic Simulator 2018</t>
   </si>
   <si>
+    <t>DiRT 4</t>
+  </si>
+  <si>
     <t>MudRunner</t>
   </si>
   <si>
+    <t>Road Redemption</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
     <t>Superflight</t>
+  </si>
+  <si>
+    <t>Ball 3D: Soccer Games</t>
+  </si>
+  <si>
+    <t>音灵 INVAXION</t>
   </si>
   <si>
     <t>Steam</t>
@@ -555,14 +1203,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="64.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1869,6 +2517,1734 @@
         <v>163</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/WebScience/Data/gamenodes2.xlsx
+++ b/WebScience/Data/gamenodes2.xlsx
@@ -1130,16 +1130,16 @@
     <t>Shooter</t>
   </si>
   <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
     <t>Racing</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Puzzle</t>
-  </si>
-  <si>
-    <t>RPG</t>
   </si>
   <si>
     <t>2017</t>
